--- a/true_answering_temp_0.7_You_are_a_helpful_assistant._general_prompt.xlsx
+++ b/true_answering_temp_0.7_You_are_a_helpful_assistant._general_prompt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\University\NLP\Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\University\NLP\Final_Project\python scripts and data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA09A7D-5F9D-446E-A464-AEE5F591CCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C785A0FA-8BA6-4A57-8815-D9AB1D0BE33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="380">
   <si>
     <t>Writer</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Some people need more company than others. People may say it is a problem, but I think it is what made our species special. The human kind would not develop as much without using other's company.</t>
   </si>
   <si>
-    <t>The paragraph seems to be written by a "Human".</t>
-  </si>
-  <si>
     <t>An interesting fact about music is it's relation to math. Some tunes sound nice because the ratio of the notes frequency. For example, an octave has a ratio of two to one.</t>
   </si>
   <si>
@@ -151,9 +148,6 @@
   </si>
   <si>
     <t>I prefer to be alone</t>
-  </si>
-  <si>
-    <t>The paragraph "I prefer to be alone" is too short to definitively attribute to a human or a language model. However, given its brevity and simplicity, it could easily be produced by either. Without more context, it's impossible to determine the source with certainty.</t>
   </si>
   <si>
     <t>Was music discovered, or rather invented by humans?</t>
@@ -1548,8 +1542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1562,31 +1556,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1784,16 +1778,16 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
         <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
       </c>
       <c r="K7" t="s">
         <v>9</v>
@@ -1804,31 +1798,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
         <v>42</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" t="s">
-        <v>44</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -1839,31 +1833,31 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
         <v>47</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>49</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -1874,31 +1868,31 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
@@ -1909,31 +1903,31 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
         <v>56</v>
       </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" t="s">
         <v>57</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>59</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
@@ -1944,31 +1938,31 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>61</v>
       </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
         <v>62</v>
-      </c>
-      <c r="G12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>64</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
@@ -1979,31 +1973,31 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" t="s">
         <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" t="s">
-        <v>69</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -2014,31 +2008,31 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>71</v>
       </c>
-      <c r="E14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="I14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" t="s">
         <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>74</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
@@ -2049,31 +2043,31 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="E15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
         <v>77</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" t="s">
-        <v>79</v>
       </c>
       <c r="K15" t="s">
         <v>6</v>
@@ -2084,31 +2078,31 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
         <v>80</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
         <v>81</v>
       </c>
-      <c r="E16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>84</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
@@ -2119,31 +2113,31 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
         <v>85</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
         <v>86</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
         <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" t="s">
-        <v>89</v>
       </c>
       <c r="K17" t="s">
         <v>6</v>
@@ -2154,31 +2148,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
         <v>90</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
         <v>91</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" t="s">
-        <v>94</v>
       </c>
       <c r="K18" t="s">
         <v>9</v>
@@ -2189,31 +2183,31 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
         <v>95</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" t="s">
         <v>97</v>
-      </c>
-      <c r="G19" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I19" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" t="s">
-        <v>99</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
@@ -2224,31 +2218,31 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
         <v>100</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
         <v>102</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" t="s">
-        <v>104</v>
       </c>
       <c r="K20" t="s">
         <v>9</v>
@@ -2259,31 +2253,31 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="I21" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
         <v>107</v>
-      </c>
-      <c r="G21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" t="s">
-        <v>109</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
@@ -2294,31 +2288,31 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
         <v>110</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
         <v>111</v>
       </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" t="s">
         <v>112</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" t="s">
-        <v>114</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
@@ -2329,31 +2323,31 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>115</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="I23" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" t="s">
         <v>117</v>
-      </c>
-      <c r="G23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" t="s">
-        <v>119</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
@@ -2364,31 +2358,31 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" t="s">
         <v>122</v>
-      </c>
-      <c r="G24" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" t="s">
-        <v>124</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
@@ -2399,31 +2393,31 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>125</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="G25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" t="s">
         <v>126</v>
       </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" t="s">
         <v>127</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H25" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" t="s">
-        <v>129</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
@@ -2434,31 +2428,31 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
         <v>130</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
         <v>131</v>
       </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="I26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" t="s">
         <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>133</v>
-      </c>
-      <c r="I26" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" t="s">
-        <v>134</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
@@ -2466,34 +2460,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>135</v>
       </c>
-      <c r="B27" t="s">
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="G27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" t="s">
         <v>137</v>
       </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J27" t="s">
         <v>138</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
-      </c>
-      <c r="H27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J27" t="s">
-        <v>140</v>
       </c>
       <c r="K27" t="s">
         <v>6</v>
@@ -2501,34 +2495,34 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
         <v>141</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
         <v>142</v>
       </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="I28" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" t="s">
         <v>143</v>
-      </c>
-      <c r="G28" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" t="s">
-        <v>145</v>
       </c>
       <c r="K28" t="s">
         <v>6</v>
@@ -2536,34 +2530,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
         <v>146</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
         <v>147</v>
       </c>
-      <c r="E29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" t="s">
         <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" t="s">
-        <v>149</v>
-      </c>
-      <c r="I29" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" t="s">
-        <v>150</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
@@ -2571,34 +2565,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
         <v>151</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
         <v>152</v>
       </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" t="s">
         <v>153</v>
-      </c>
-      <c r="G30" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" t="s">
-        <v>154</v>
-      </c>
-      <c r="I30" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" t="s">
-        <v>155</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
@@ -2606,34 +2600,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
         <v>156</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
         <v>157</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
         <v>158</v>
-      </c>
-      <c r="G31" t="s">
-        <v>6</v>
-      </c>
-      <c r="H31" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" t="s">
-        <v>160</v>
       </c>
       <c r="K31" t="s">
         <v>6</v>
@@ -2641,34 +2635,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
         <v>161</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
         <v>162</v>
       </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" t="s">
         <v>163</v>
-      </c>
-      <c r="G32" t="s">
-        <v>6</v>
-      </c>
-      <c r="H32" t="s">
-        <v>164</v>
-      </c>
-      <c r="I32" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" t="s">
-        <v>165</v>
       </c>
       <c r="K32" t="s">
         <v>6</v>
@@ -2676,34 +2670,34 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
         <v>166</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
         <v>167</v>
       </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
         <v>168</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" t="s">
-        <v>170</v>
       </c>
       <c r="K33" t="s">
         <v>6</v>
@@ -2711,34 +2705,34 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" t="s">
         <v>171</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
         <v>172</v>
       </c>
-      <c r="E34" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
         <v>173</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" t="s">
-        <v>175</v>
       </c>
       <c r="K34" t="s">
         <v>6</v>
@@ -2746,34 +2740,34 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
         <v>176</v>
       </c>
-      <c r="B35" t="s">
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
         <v>177</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
         <v>178</v>
       </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
         <v>179</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" t="s">
-        <v>181</v>
       </c>
       <c r="K35" t="s">
         <v>6</v>
@@ -2781,34 +2775,34 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B36" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
         <v>182</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
         <v>183</v>
       </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
         <v>184</v>
-      </c>
-      <c r="G36" t="s">
-        <v>6</v>
-      </c>
-      <c r="H36" t="s">
-        <v>185</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" t="s">
-        <v>186</v>
       </c>
       <c r="K36" t="s">
         <v>6</v>
@@ -2816,34 +2810,34 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
         <v>187</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
         <v>188</v>
       </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="I37" t="s">
+        <v>6</v>
+      </c>
+      <c r="J37" t="s">
         <v>189</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
-        <v>190</v>
-      </c>
-      <c r="I37" t="s">
-        <v>6</v>
-      </c>
-      <c r="J37" t="s">
-        <v>191</v>
       </c>
       <c r="K37" t="s">
         <v>6</v>
@@ -2851,34 +2845,34 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" t="s">
         <v>192</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
         <v>193</v>
       </c>
-      <c r="E38" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
         <v>194</v>
-      </c>
-      <c r="G38" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" t="s">
-        <v>196</v>
       </c>
       <c r="K38" t="s">
         <v>6</v>
@@ -2886,34 +2880,34 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
         <v>197</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
         <v>198</v>
       </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J39" t="s">
         <v>199</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" t="s">
-        <v>6</v>
-      </c>
-      <c r="J39" t="s">
-        <v>201</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
@@ -2921,34 +2915,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" t="s">
+        <v>200</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
         <v>202</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
         <v>203</v>
       </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" t="s">
         <v>204</v>
-      </c>
-      <c r="G40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>205</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40" t="s">
-        <v>206</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
@@ -2956,34 +2950,34 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
         <v>207</v>
       </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
         <v>208</v>
       </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" t="s">
         <v>209</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>210</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41" t="s">
-        <v>211</v>
       </c>
       <c r="K41" t="s">
         <v>6</v>
@@ -2991,34 +2985,34 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
         <v>212</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="G42" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="I42" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" t="s">
         <v>214</v>
-      </c>
-      <c r="G42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>215</v>
-      </c>
-      <c r="I42" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" t="s">
-        <v>216</v>
       </c>
       <c r="K42" t="s">
         <v>6</v>
@@ -3026,34 +3020,34 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
         <v>217</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
         <v>218</v>
       </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
         <v>219</v>
       </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
         <v>220</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>221</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" t="s">
-        <v>222</v>
       </c>
       <c r="K43" t="s">
         <v>6</v>
@@ -3061,34 +3055,34 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B44" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>222</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
         <v>223</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
         <v>224</v>
       </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" t="s">
         <v>225</v>
-      </c>
-      <c r="G44" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" t="s">
-        <v>226</v>
-      </c>
-      <c r="I44" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" t="s">
-        <v>227</v>
       </c>
       <c r="K44" t="s">
         <v>6</v>
@@ -3096,34 +3090,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" t="s">
         <v>228</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
         <v>229</v>
       </c>
-      <c r="E45" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
         <v>230</v>
-      </c>
-      <c r="G45" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" t="s">
-        <v>231</v>
-      </c>
-      <c r="I45" t="s">
-        <v>6</v>
-      </c>
-      <c r="J45" t="s">
-        <v>232</v>
       </c>
       <c r="K45" t="s">
         <v>6</v>
@@ -3131,34 +3125,34 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
         <v>233</v>
       </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
         <v>234</v>
       </c>
-      <c r="E46" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="I46" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" t="s">
         <v>235</v>
-      </c>
-      <c r="G46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
-        <v>236</v>
-      </c>
-      <c r="I46" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" t="s">
-        <v>237</v>
       </c>
       <c r="K46" t="s">
         <v>6</v>
@@ -3166,34 +3160,34 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>237</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
         <v>238</v>
       </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
         <v>239</v>
       </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" t="s">
         <v>240</v>
-      </c>
-      <c r="G47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
-        <v>241</v>
-      </c>
-      <c r="I47" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" t="s">
-        <v>242</v>
       </c>
       <c r="K47" t="s">
         <v>6</v>
@@ -3201,34 +3195,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
+        <v>241</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
         <v>243</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" t="s">
         <v>244</v>
       </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
         <v>245</v>
-      </c>
-      <c r="G48" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" t="s">
-        <v>246</v>
-      </c>
-      <c r="I48" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" t="s">
-        <v>247</v>
       </c>
       <c r="K48" t="s">
         <v>6</v>
@@ -3236,34 +3230,34 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
+        <v>246</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>247</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
         <v>248</v>
       </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" t="s">
         <v>249</v>
       </c>
-      <c r="E49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="I49" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" t="s">
         <v>250</v>
-      </c>
-      <c r="G49" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" t="s">
-        <v>251</v>
-      </c>
-      <c r="I49" t="s">
-        <v>6</v>
-      </c>
-      <c r="J49" t="s">
-        <v>252</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
@@ -3271,34 +3265,34 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>252</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
         <v>253</v>
       </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" t="s">
         <v>254</v>
       </c>
-      <c r="E50" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="I50" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" t="s">
         <v>255</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>256</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" t="s">
-        <v>257</v>
       </c>
       <c r="K50" t="s">
         <v>6</v>
@@ -3306,34 +3300,34 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>256</v>
+      </c>
+      <c r="B51" t="s">
+        <v>257</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
         <v>258</v>
       </c>
-      <c r="B51" t="s">
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
         <v>259</v>
       </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" t="s">
         <v>260</v>
       </c>
-      <c r="E51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="I51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J51" t="s">
         <v>261</v>
-      </c>
-      <c r="G51" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" t="s">
-        <v>262</v>
-      </c>
-      <c r="I51" t="s">
-        <v>6</v>
-      </c>
-      <c r="J51" t="s">
-        <v>263</v>
       </c>
       <c r="K51" t="s">
         <v>9</v>
@@ -3341,34 +3335,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
         <v>264</v>
       </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52" t="s">
         <v>265</v>
       </c>
-      <c r="E52" t="s">
-        <v>9</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="I52" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" t="s">
         <v>266</v>
-      </c>
-      <c r="G52" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" t="s">
-        <v>267</v>
-      </c>
-      <c r="I52" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" t="s">
-        <v>268</v>
       </c>
       <c r="K52" t="s">
         <v>9</v>
@@ -3376,34 +3370,34 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" t="s">
         <v>270</v>
       </c>
-      <c r="E53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" t="s">
         <v>271</v>
-      </c>
-      <c r="G53" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" t="s">
-        <v>272</v>
-      </c>
-      <c r="I53" t="s">
-        <v>9</v>
-      </c>
-      <c r="J53" t="s">
-        <v>273</v>
       </c>
       <c r="K53" t="s">
         <v>9</v>
@@ -3411,34 +3405,34 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
+        <v>272</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
         <v>274</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" t="s">
         <v>275</v>
       </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" t="s">
         <v>276</v>
-      </c>
-      <c r="G54" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" t="s">
-        <v>277</v>
-      </c>
-      <c r="I54" t="s">
-        <v>9</v>
-      </c>
-      <c r="J54" t="s">
-        <v>278</v>
       </c>
       <c r="K54" t="s">
         <v>9</v>
@@ -3446,34 +3440,34 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>278</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
         <v>279</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
         <v>280</v>
       </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="I55" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" t="s">
         <v>281</v>
-      </c>
-      <c r="G55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" t="s">
-        <v>282</v>
-      </c>
-      <c r="I55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" t="s">
-        <v>283</v>
       </c>
       <c r="K55" t="s">
         <v>9</v>
@@ -3481,34 +3475,34 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
+        <v>282</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
         <v>284</v>
       </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
         <v>285</v>
       </c>
-      <c r="E56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" t="s">
+      <c r="I56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" t="s">
         <v>286</v>
-      </c>
-      <c r="G56" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" t="s">
-        <v>287</v>
-      </c>
-      <c r="I56" t="s">
-        <v>9</v>
-      </c>
-      <c r="J56" t="s">
-        <v>288</v>
       </c>
       <c r="K56" t="s">
         <v>9</v>
@@ -3516,34 +3510,34 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
+        <v>287</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>288</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" t="s">
         <v>289</v>
       </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="G57" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
         <v>290</v>
       </c>
-      <c r="E57" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="I57" t="s">
+        <v>6</v>
+      </c>
+      <c r="J57" t="s">
         <v>291</v>
-      </c>
-      <c r="G57" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" t="s">
-        <v>292</v>
-      </c>
-      <c r="I57" t="s">
-        <v>6</v>
-      </c>
-      <c r="J57" t="s">
-        <v>293</v>
       </c>
       <c r="K57" t="s">
         <v>9</v>
@@ -3551,34 +3545,34 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>293</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
         <v>294</v>
       </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
         <v>295</v>
       </c>
-      <c r="E58" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" t="s">
+      <c r="I58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" t="s">
         <v>296</v>
-      </c>
-      <c r="G58" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" t="s">
-        <v>297</v>
-      </c>
-      <c r="I58" t="s">
-        <v>9</v>
-      </c>
-      <c r="J58" t="s">
-        <v>298</v>
       </c>
       <c r="K58" t="s">
         <v>9</v>
@@ -3586,34 +3580,34 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" t="s">
+        <v>298</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
         <v>299</v>
       </c>
-      <c r="B59" t="s">
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
         <v>300</v>
       </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" t="s">
         <v>301</v>
       </c>
-      <c r="E59" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" t="s">
+      <c r="I59" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" t="s">
         <v>302</v>
-      </c>
-      <c r="G59" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" t="s">
-        <v>303</v>
-      </c>
-      <c r="I59" t="s">
-        <v>9</v>
-      </c>
-      <c r="J59" t="s">
-        <v>304</v>
       </c>
       <c r="K59" t="s">
         <v>9</v>
@@ -3621,34 +3615,34 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s">
+        <v>303</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>304</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
         <v>305</v>
       </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" t="s">
         <v>306</v>
       </c>
-      <c r="E60" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" t="s">
         <v>307</v>
-      </c>
-      <c r="G60" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" t="s">
-        <v>308</v>
-      </c>
-      <c r="I60" t="s">
-        <v>9</v>
-      </c>
-      <c r="J60" t="s">
-        <v>309</v>
       </c>
       <c r="K60" t="s">
         <v>9</v>
@@ -3656,34 +3650,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B61" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>309</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
         <v>310</v>
       </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
         <v>311</v>
       </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="I61" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" t="s">
         <v>312</v>
-      </c>
-      <c r="G61" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" t="s">
-        <v>313</v>
-      </c>
-      <c r="I61" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" t="s">
-        <v>314</v>
       </c>
       <c r="K61" t="s">
         <v>6</v>
@@ -3691,34 +3685,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B62" t="s">
+        <v>313</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>314</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
         <v>315</v>
       </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
         <v>316</v>
       </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="I62" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" t="s">
         <v>317</v>
-      </c>
-      <c r="G62" t="s">
-        <v>9</v>
-      </c>
-      <c r="H62" t="s">
-        <v>318</v>
-      </c>
-      <c r="I62" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" t="s">
-        <v>319</v>
       </c>
       <c r="K62" t="s">
         <v>9</v>
@@ -3726,34 +3720,34 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s">
+        <v>318</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>319</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
         <v>320</v>
       </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" t="s">
         <v>321</v>
       </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="I63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
         <v>322</v>
-      </c>
-      <c r="G63" t="s">
-        <v>6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>323</v>
-      </c>
-      <c r="I63" t="s">
-        <v>9</v>
-      </c>
-      <c r="J63" t="s">
-        <v>324</v>
       </c>
       <c r="K63" t="s">
         <v>9</v>
@@ -3761,34 +3755,34 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B64" t="s">
+        <v>323</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>324</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
         <v>325</v>
       </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
         <v>326</v>
       </c>
-      <c r="E64" t="s">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
         <v>327</v>
-      </c>
-      <c r="G64" t="s">
-        <v>6</v>
-      </c>
-      <c r="H64" t="s">
-        <v>328</v>
-      </c>
-      <c r="I64" t="s">
-        <v>9</v>
-      </c>
-      <c r="J64" t="s">
-        <v>329</v>
       </c>
       <c r="K64" t="s">
         <v>9</v>
@@ -3796,34 +3790,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B65" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>329</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" t="s">
         <v>330</v>
       </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" t="s">
         <v>331</v>
       </c>
-      <c r="E65" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I65" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" t="s">
         <v>332</v>
-      </c>
-      <c r="G65" t="s">
-        <v>9</v>
-      </c>
-      <c r="H65" t="s">
-        <v>333</v>
-      </c>
-      <c r="I65" t="s">
-        <v>9</v>
-      </c>
-      <c r="J65" t="s">
-        <v>334</v>
       </c>
       <c r="K65" t="s">
         <v>9</v>
@@ -3831,34 +3825,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B66" t="s">
+        <v>333</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
         <v>335</v>
       </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" t="s">
         <v>336</v>
       </c>
-      <c r="E66" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" t="s">
+      <c r="I66" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" t="s">
         <v>337</v>
-      </c>
-      <c r="G66" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" t="s">
-        <v>338</v>
-      </c>
-      <c r="I66" t="s">
-        <v>9</v>
-      </c>
-      <c r="J66" t="s">
-        <v>339</v>
       </c>
       <c r="K66" t="s">
         <v>9</v>
@@ -3866,34 +3860,34 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>338</v>
+      </c>
+      <c r="B67" t="s">
+        <v>339</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
         <v>340</v>
       </c>
-      <c r="B67" t="s">
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
         <v>341</v>
       </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
         <v>342</v>
       </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
         <v>343</v>
-      </c>
-      <c r="G67" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" t="s">
-        <v>344</v>
-      </c>
-      <c r="I67" t="s">
-        <v>6</v>
-      </c>
-      <c r="J67" t="s">
-        <v>345</v>
       </c>
       <c r="K67" t="s">
         <v>6</v>
@@ -3901,34 +3895,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B68" t="s">
+        <v>344</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>345</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" t="s">
         <v>346</v>
       </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" t="s">
         <v>347</v>
       </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
+      <c r="I68" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" t="s">
         <v>348</v>
-      </c>
-      <c r="G68" t="s">
-        <v>9</v>
-      </c>
-      <c r="H68" t="s">
-        <v>349</v>
-      </c>
-      <c r="I68" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" t="s">
-        <v>350</v>
       </c>
       <c r="K68" t="s">
         <v>6</v>
@@ -3936,34 +3930,34 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B69" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>350</v>
+      </c>
+      <c r="E69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
         <v>351</v>
       </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" t="s">
         <v>352</v>
       </c>
-      <c r="E69" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" t="s">
+      <c r="I69" t="s">
+        <v>9</v>
+      </c>
+      <c r="J69" t="s">
         <v>353</v>
-      </c>
-      <c r="G69" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" t="s">
-        <v>354</v>
-      </c>
-      <c r="I69" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69" t="s">
-        <v>355</v>
       </c>
       <c r="K69" t="s">
         <v>6</v>
@@ -3971,34 +3965,34 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B70" t="s">
+        <v>354</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>355</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" t="s">
         <v>356</v>
       </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
         <v>357</v>
       </c>
-      <c r="E70" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+      <c r="J70" t="s">
         <v>358</v>
-      </c>
-      <c r="G70" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" t="s">
-        <v>359</v>
-      </c>
-      <c r="I70" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" t="s">
-        <v>360</v>
       </c>
       <c r="K70" t="s">
         <v>6</v>
@@ -4006,34 +4000,34 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B71" t="s">
+        <v>359</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>360</v>
+      </c>
+      <c r="E71" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" t="s">
         <v>361</v>
       </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" t="s">
         <v>362</v>
       </c>
-      <c r="E71" t="s">
-        <v>9</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="I71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
         <v>363</v>
-      </c>
-      <c r="G71" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" t="s">
-        <v>364</v>
-      </c>
-      <c r="I71" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71" t="s">
-        <v>365</v>
       </c>
       <c r="K71" t="s">
         <v>6</v>
@@ -4041,34 +4035,34 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
+        <v>364</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>365</v>
+      </c>
+      <c r="E72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
         <v>366</v>
       </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" t="s">
         <v>367</v>
       </c>
-      <c r="E72" t="s">
-        <v>9</v>
-      </c>
-      <c r="F72" t="s">
+      <c r="I72" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" t="s">
         <v>368</v>
-      </c>
-      <c r="G72" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" t="s">
-        <v>369</v>
-      </c>
-      <c r="I72" t="s">
-        <v>9</v>
-      </c>
-      <c r="J72" t="s">
-        <v>370</v>
       </c>
       <c r="K72" t="s">
         <v>6</v>
@@ -4076,34 +4070,34 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
+        <v>369</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>370</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
         <v>371</v>
       </c>
-      <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" t="s">
         <v>372</v>
       </c>
-      <c r="E73" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="I73" t="s">
+        <v>6</v>
+      </c>
+      <c r="J73" t="s">
         <v>373</v>
-      </c>
-      <c r="G73" t="s">
-        <v>9</v>
-      </c>
-      <c r="H73" t="s">
-        <v>374</v>
-      </c>
-      <c r="I73" t="s">
-        <v>6</v>
-      </c>
-      <c r="J73" t="s">
-        <v>375</v>
       </c>
       <c r="K73" t="s">
         <v>9</v>
@@ -4111,34 +4105,34 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B74" t="s">
+        <v>374</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>375</v>
+      </c>
+      <c r="E74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
         <v>376</v>
       </c>
-      <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" t="s">
         <v>377</v>
       </c>
-      <c r="E74" t="s">
-        <v>9</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="I74" t="s">
+        <v>9</v>
+      </c>
+      <c r="J74" t="s">
         <v>378</v>
-      </c>
-      <c r="G74" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" t="s">
-        <v>379</v>
-      </c>
-      <c r="I74" t="s">
-        <v>9</v>
-      </c>
-      <c r="J74" t="s">
-        <v>380</v>
       </c>
       <c r="K74" t="s">
         <v>6</v>
